--- a/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
+++ b/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/DutyInfo/IFS国际金融中心/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF1FB6-0A38-2B46-B856-DF815E89D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5124FEA-FEAA-E047-AA93-C2BE330C0D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="18">
   <si>
     <t>IFS</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>晚</t>
-  </si>
-  <si>
-    <t>赵俊</t>
-  </si>
-  <si>
-    <t>杜洁</t>
   </si>
   <si>
     <t>二</t>
@@ -78,13 +72,16 @@
   <si>
     <t>2022年4月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡欣</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,12 +105,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +148,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,9 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
@@ -434,200 +441,200 @@
     <col min="31" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="26">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>31</v>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="26">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" ht="26">
+    <row r="3" spans="1:32" ht="20">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
@@ -659,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>2</v>
@@ -671,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
@@ -722,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" ht="26">
+    <row r="4" spans="1:32" ht="20">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -738,181 +745,181 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="20">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" ht="26">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" ht="26">
+    <row r="6" spans="1:32" ht="27" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -928,8 +935,8 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
@@ -938,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>2</v>
@@ -950,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>1</v>
@@ -962,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>2</v>
@@ -1005,101 +1012,6 @@
       </c>
       <c r="AE6" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" ht="26">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
+++ b/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/DutyInfo/IFS国际金融中心/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12F7CF-5BEC-4B44-A1F8-AF8B848FBBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E005B008-F427-2840-94E5-968497DC15AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFS班表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
   <si>
     <t>休</t>
   </si>
@@ -43,45 +43,55 @@
     <t>晚</t>
   </si>
   <si>
-    <t>中(法)</t>
-  </si>
-  <si>
     <t>胡欣</t>
   </si>
   <si>
-    <t>2022年5月份</t>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>2022年6月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IFS</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>六</t>
+    <t>晚(法)</t>
+  </si>
+  <si>
+    <t>早(法)</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,38 +127,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F2329"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,21 +161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,7 +444,7 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -493,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -589,494 +552,479 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="9" customFormat="1" ht="14">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:32" s="4" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="X2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="Z2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="9" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AE2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>0</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="27" customHeight="1">

--- a/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
+++ b/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/DutyInfo/IFS国际金融中心/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/Projects/ITWebService/ITWebService/DutyInfo/IFS国际金融中心/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E005B008-F427-2840-94E5-968497DC15AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91A9DD-2B6B-164D-8CA1-683523634F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13480" yWindow="7920" windowWidth="35340" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFS班表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="17">
   <si>
     <t>休</t>
   </si>
@@ -70,20 +70,7 @@
     <t>六</t>
   </si>
   <si>
-    <t>2022年6月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚(法)</t>
-  </si>
-  <si>
-    <t>早(法)</t>
-  </si>
-  <si>
-    <t>夜</t>
-  </si>
-  <si>
-    <t>晚</t>
+    <t>2022年7月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,25 +94,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,20 +124,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,17 +409,16 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="30" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="24">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -552,514 +516,497 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1">
+    <row r="2" spans="1:32" ht="24">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="24">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" ht="24">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF4" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" ht="24">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AF5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" ht="24">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="27" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
+    <row r="7" spans="1:32" ht="27" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
+++ b/ITWebService/DutyInfo/IFS国际金融中心/IFS国际金融中心duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/Projects/ITWebService/ITWebService/DutyInfo/IFS国际金融中心/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91A9DD-2B6B-164D-8CA1-683523634F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391EC02-06AA-624F-9DF2-6C6615564639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="7920" windowWidth="35340" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFS班表" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1006,7 +1006,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="27" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
